--- a/Desglose Tarifa Monterrey 89.xlsx
+++ b/Desglose Tarifa Monterrey 89.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Anahp\PASE2\EVENTUALES 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mis documentos\Documentos Trabajo PASE\Manuales y Procedimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E93252-E653-4B5E-934E-48616409981E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B23F36E-BD9E-4BAD-B7F4-2F086B8943E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
   <si>
     <t>PÚBLICO EN GENERAL</t>
   </si>
@@ -105,6 +105,33 @@
   <si>
     <r>
       <t xml:space="preserve">12 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1/4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hasta 15 horas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15 </t>
     </r>
     <r>
       <rPr>
@@ -679,13 +706,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="11.453125" style="1"/>
-    <col min="6" max="8" width="11.453125" style="1"/>
+    <col min="2" max="4" width="11.42578125" style="1"/>
+    <col min="6" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
@@ -697,7 +724,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -711,7 +738,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -737,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -767,7 +794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1.25</v>
       </c>
@@ -799,7 +826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>+A5+0.25</f>
         <v>1.5</v>
@@ -833,7 +860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>+A6+0.25</f>
         <v>1.75</v>
@@ -867,7 +894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>+A7+0.25</f>
         <v>2</v>
@@ -901,7 +928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" ref="A9:A45" si="6">+A8+0.25</f>
         <v>2.25</v>
@@ -935,7 +962,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="6"/>
         <v>2.5</v>
@@ -969,7 +996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="6"/>
         <v>2.75</v>
@@ -1003,7 +1030,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -1037,7 +1064,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="6"/>
         <v>3.25</v>
@@ -1071,7 +1098,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="6"/>
         <v>3.5</v>
@@ -1105,7 +1132,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="6"/>
         <v>3.75</v>
@@ -1139,7 +1166,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -1173,7 +1200,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="6"/>
         <v>4.25</v>
@@ -1207,7 +1234,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f t="shared" si="6"/>
         <v>4.5</v>
@@ -1241,7 +1268,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="6"/>
         <v>4.75</v>
@@ -1275,7 +1302,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -1309,7 +1336,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="6"/>
         <v>5.25</v>
@@ -1343,7 +1370,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="6"/>
         <v>5.5</v>
@@ -1377,7 +1404,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="6"/>
         <v>5.75</v>
@@ -1411,7 +1438,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -1445,7 +1472,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="6"/>
         <v>6.25</v>
@@ -1479,7 +1506,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="6"/>
         <v>6.5</v>
@@ -1513,7 +1540,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="6"/>
         <v>6.75</v>
@@ -1547,7 +1574,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -1581,7 +1608,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="6"/>
         <v>7.25</v>
@@ -1615,7 +1642,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="6"/>
         <v>7.5</v>
@@ -1649,7 +1676,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="6"/>
         <v>7.75</v>
@@ -1683,7 +1710,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -1717,7 +1744,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f t="shared" si="6"/>
         <v>8.25</v>
@@ -1751,7 +1778,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f t="shared" si="6"/>
         <v>8.5</v>
@@ -1785,7 +1812,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f t="shared" si="6"/>
         <v>8.75</v>
@@ -1819,7 +1846,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -1853,7 +1880,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <f t="shared" si="6"/>
         <v>9.25</v>
@@ -1887,7 +1914,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f t="shared" si="6"/>
         <v>9.5</v>
@@ -1921,7 +1948,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f t="shared" si="6"/>
         <v>9.75</v>
@@ -1955,7 +1982,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -1989,7 +2016,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f t="shared" si="6"/>
         <v>10.25</v>
@@ -2023,7 +2050,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <f t="shared" si="6"/>
         <v>10.5</v>
@@ -2055,7 +2082,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <f t="shared" si="6"/>
         <v>10.75</v>
@@ -2077,7 +2104,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -2099,7 +2126,7 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <f t="shared" si="6"/>
         <v>11.25</v>
@@ -2121,7 +2148,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>9</v>
       </c>
@@ -2141,7 +2168,7 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
@@ -2180,13 +2207,13 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="11.453125" style="1"/>
-    <col min="6" max="8" width="11.453125" style="1"/>
+    <col min="2" max="4" width="11.42578125" style="1"/>
+    <col min="6" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
@@ -2198,7 +2225,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -2212,7 +2239,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2238,7 +2265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2268,7 +2295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1.25</v>
       </c>
@@ -2300,7 +2327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>+A5+0.25</f>
         <v>1.5</v>
@@ -2334,7 +2361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>+A6+0.25</f>
         <v>1.75</v>
@@ -2368,7 +2395,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>+A7+0.25</f>
         <v>2</v>
@@ -2402,7 +2429,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" ref="A9:A15" si="6">+A8+0.25</f>
         <v>2.25</v>
@@ -2436,7 +2463,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="6"/>
         <v>2.5</v>
@@ -2470,7 +2497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="6"/>
         <v>2.75</v>
@@ -2504,7 +2531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -2537,7 +2564,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="6"/>
         <v>3.25</v>
@@ -2567,7 +2594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="6"/>
         <v>3.5</v>
@@ -2597,7 +2624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="6"/>
         <v>3.75</v>
@@ -2627,7 +2654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -2656,7 +2683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -2686,7 +2713,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
@@ -2706,7 +2733,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -2714,7 +2741,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -2722,17 +2749,17 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -2740,7 +2767,7 @@
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -2748,7 +2775,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -2756,7 +2783,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2764,7 +2791,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2772,7 +2799,7 @@
       <c r="G27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -2780,7 +2807,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -2788,7 +2815,7 @@
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -2796,7 +2823,7 @@
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -2804,7 +2831,7 @@
       <c r="G31"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -2812,15 +2839,15 @@
       <c r="G32"/>
       <c r="H32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
@@ -2834,146 +2861,146 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" style="21" customWidth="1"/>
-    <col min="2" max="3" width="11.453125" style="21"/>
-    <col min="4" max="255" width="10.90625" style="13"/>
-    <col min="256" max="256" width="20.54296875" style="13" customWidth="1"/>
-    <col min="257" max="511" width="10.90625" style="13"/>
-    <col min="512" max="512" width="20.54296875" style="13" customWidth="1"/>
-    <col min="513" max="767" width="10.90625" style="13"/>
-    <col min="768" max="768" width="20.54296875" style="13" customWidth="1"/>
-    <col min="769" max="1023" width="10.90625" style="13"/>
-    <col min="1024" max="1024" width="20.54296875" style="13" customWidth="1"/>
-    <col min="1025" max="1279" width="10.90625" style="13"/>
-    <col min="1280" max="1280" width="20.54296875" style="13" customWidth="1"/>
-    <col min="1281" max="1535" width="10.90625" style="13"/>
-    <col min="1536" max="1536" width="20.54296875" style="13" customWidth="1"/>
-    <col min="1537" max="1791" width="10.90625" style="13"/>
-    <col min="1792" max="1792" width="20.54296875" style="13" customWidth="1"/>
-    <col min="1793" max="2047" width="10.90625" style="13"/>
-    <col min="2048" max="2048" width="20.54296875" style="13" customWidth="1"/>
-    <col min="2049" max="2303" width="10.90625" style="13"/>
-    <col min="2304" max="2304" width="20.54296875" style="13" customWidth="1"/>
-    <col min="2305" max="2559" width="10.90625" style="13"/>
-    <col min="2560" max="2560" width="20.54296875" style="13" customWidth="1"/>
-    <col min="2561" max="2815" width="10.90625" style="13"/>
-    <col min="2816" max="2816" width="20.54296875" style="13" customWidth="1"/>
-    <col min="2817" max="3071" width="10.90625" style="13"/>
-    <col min="3072" max="3072" width="20.54296875" style="13" customWidth="1"/>
-    <col min="3073" max="3327" width="10.90625" style="13"/>
-    <col min="3328" max="3328" width="20.54296875" style="13" customWidth="1"/>
-    <col min="3329" max="3583" width="10.90625" style="13"/>
-    <col min="3584" max="3584" width="20.54296875" style="13" customWidth="1"/>
-    <col min="3585" max="3839" width="10.90625" style="13"/>
-    <col min="3840" max="3840" width="20.54296875" style="13" customWidth="1"/>
-    <col min="3841" max="4095" width="10.90625" style="13"/>
-    <col min="4096" max="4096" width="20.54296875" style="13" customWidth="1"/>
-    <col min="4097" max="4351" width="10.90625" style="13"/>
-    <col min="4352" max="4352" width="20.54296875" style="13" customWidth="1"/>
-    <col min="4353" max="4607" width="10.90625" style="13"/>
-    <col min="4608" max="4608" width="20.54296875" style="13" customWidth="1"/>
-    <col min="4609" max="4863" width="10.90625" style="13"/>
-    <col min="4864" max="4864" width="20.54296875" style="13" customWidth="1"/>
-    <col min="4865" max="5119" width="10.90625" style="13"/>
-    <col min="5120" max="5120" width="20.54296875" style="13" customWidth="1"/>
-    <col min="5121" max="5375" width="10.90625" style="13"/>
-    <col min="5376" max="5376" width="20.54296875" style="13" customWidth="1"/>
-    <col min="5377" max="5631" width="10.90625" style="13"/>
-    <col min="5632" max="5632" width="20.54296875" style="13" customWidth="1"/>
-    <col min="5633" max="5887" width="10.90625" style="13"/>
-    <col min="5888" max="5888" width="20.54296875" style="13" customWidth="1"/>
-    <col min="5889" max="6143" width="10.90625" style="13"/>
-    <col min="6144" max="6144" width="20.54296875" style="13" customWidth="1"/>
-    <col min="6145" max="6399" width="10.90625" style="13"/>
-    <col min="6400" max="6400" width="20.54296875" style="13" customWidth="1"/>
-    <col min="6401" max="6655" width="10.90625" style="13"/>
-    <col min="6656" max="6656" width="20.54296875" style="13" customWidth="1"/>
-    <col min="6657" max="6911" width="10.90625" style="13"/>
-    <col min="6912" max="6912" width="20.54296875" style="13" customWidth="1"/>
-    <col min="6913" max="7167" width="10.90625" style="13"/>
-    <col min="7168" max="7168" width="20.54296875" style="13" customWidth="1"/>
-    <col min="7169" max="7423" width="10.90625" style="13"/>
-    <col min="7424" max="7424" width="20.54296875" style="13" customWidth="1"/>
-    <col min="7425" max="7679" width="10.90625" style="13"/>
-    <col min="7680" max="7680" width="20.54296875" style="13" customWidth="1"/>
-    <col min="7681" max="7935" width="10.90625" style="13"/>
-    <col min="7936" max="7936" width="20.54296875" style="13" customWidth="1"/>
-    <col min="7937" max="8191" width="10.90625" style="13"/>
-    <col min="8192" max="8192" width="20.54296875" style="13" customWidth="1"/>
-    <col min="8193" max="8447" width="10.90625" style="13"/>
-    <col min="8448" max="8448" width="20.54296875" style="13" customWidth="1"/>
-    <col min="8449" max="8703" width="10.90625" style="13"/>
-    <col min="8704" max="8704" width="20.54296875" style="13" customWidth="1"/>
-    <col min="8705" max="8959" width="10.90625" style="13"/>
-    <col min="8960" max="8960" width="20.54296875" style="13" customWidth="1"/>
-    <col min="8961" max="9215" width="10.90625" style="13"/>
-    <col min="9216" max="9216" width="20.54296875" style="13" customWidth="1"/>
-    <col min="9217" max="9471" width="10.90625" style="13"/>
-    <col min="9472" max="9472" width="20.54296875" style="13" customWidth="1"/>
-    <col min="9473" max="9727" width="10.90625" style="13"/>
-    <col min="9728" max="9728" width="20.54296875" style="13" customWidth="1"/>
-    <col min="9729" max="9983" width="10.90625" style="13"/>
-    <col min="9984" max="9984" width="20.54296875" style="13" customWidth="1"/>
-    <col min="9985" max="10239" width="10.90625" style="13"/>
-    <col min="10240" max="10240" width="20.54296875" style="13" customWidth="1"/>
-    <col min="10241" max="10495" width="10.90625" style="13"/>
-    <col min="10496" max="10496" width="20.54296875" style="13" customWidth="1"/>
-    <col min="10497" max="10751" width="10.90625" style="13"/>
-    <col min="10752" max="10752" width="20.54296875" style="13" customWidth="1"/>
-    <col min="10753" max="11007" width="10.90625" style="13"/>
-    <col min="11008" max="11008" width="20.54296875" style="13" customWidth="1"/>
-    <col min="11009" max="11263" width="10.90625" style="13"/>
-    <col min="11264" max="11264" width="20.54296875" style="13" customWidth="1"/>
-    <col min="11265" max="11519" width="10.90625" style="13"/>
-    <col min="11520" max="11520" width="20.54296875" style="13" customWidth="1"/>
-    <col min="11521" max="11775" width="10.90625" style="13"/>
-    <col min="11776" max="11776" width="20.54296875" style="13" customWidth="1"/>
-    <col min="11777" max="12031" width="10.90625" style="13"/>
-    <col min="12032" max="12032" width="20.54296875" style="13" customWidth="1"/>
-    <col min="12033" max="12287" width="10.90625" style="13"/>
-    <col min="12288" max="12288" width="20.54296875" style="13" customWidth="1"/>
-    <col min="12289" max="12543" width="10.90625" style="13"/>
-    <col min="12544" max="12544" width="20.54296875" style="13" customWidth="1"/>
-    <col min="12545" max="12799" width="10.90625" style="13"/>
-    <col min="12800" max="12800" width="20.54296875" style="13" customWidth="1"/>
-    <col min="12801" max="13055" width="10.90625" style="13"/>
-    <col min="13056" max="13056" width="20.54296875" style="13" customWidth="1"/>
-    <col min="13057" max="13311" width="10.90625" style="13"/>
-    <col min="13312" max="13312" width="20.54296875" style="13" customWidth="1"/>
-    <col min="13313" max="13567" width="10.90625" style="13"/>
-    <col min="13568" max="13568" width="20.54296875" style="13" customWidth="1"/>
-    <col min="13569" max="13823" width="10.90625" style="13"/>
-    <col min="13824" max="13824" width="20.54296875" style="13" customWidth="1"/>
-    <col min="13825" max="14079" width="10.90625" style="13"/>
-    <col min="14080" max="14080" width="20.54296875" style="13" customWidth="1"/>
-    <col min="14081" max="14335" width="10.90625" style="13"/>
-    <col min="14336" max="14336" width="20.54296875" style="13" customWidth="1"/>
-    <col min="14337" max="14591" width="10.90625" style="13"/>
-    <col min="14592" max="14592" width="20.54296875" style="13" customWidth="1"/>
-    <col min="14593" max="14847" width="10.90625" style="13"/>
-    <col min="14848" max="14848" width="20.54296875" style="13" customWidth="1"/>
-    <col min="14849" max="15103" width="10.90625" style="13"/>
-    <col min="15104" max="15104" width="20.54296875" style="13" customWidth="1"/>
-    <col min="15105" max="15359" width="10.90625" style="13"/>
-    <col min="15360" max="15360" width="20.54296875" style="13" customWidth="1"/>
-    <col min="15361" max="15615" width="10.90625" style="13"/>
-    <col min="15616" max="15616" width="20.54296875" style="13" customWidth="1"/>
-    <col min="15617" max="15871" width="10.90625" style="13"/>
-    <col min="15872" max="15872" width="20.54296875" style="13" customWidth="1"/>
-    <col min="15873" max="16127" width="10.90625" style="13"/>
-    <col min="16128" max="16128" width="20.54296875" style="13" customWidth="1"/>
-    <col min="16129" max="16384" width="10.90625" style="13"/>
+    <col min="1" max="1" width="19.5703125" style="21" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="21"/>
+    <col min="4" max="255" width="10.85546875" style="13"/>
+    <col min="256" max="256" width="20.5703125" style="13" customWidth="1"/>
+    <col min="257" max="511" width="10.85546875" style="13"/>
+    <col min="512" max="512" width="20.5703125" style="13" customWidth="1"/>
+    <col min="513" max="767" width="10.85546875" style="13"/>
+    <col min="768" max="768" width="20.5703125" style="13" customWidth="1"/>
+    <col min="769" max="1023" width="10.85546875" style="13"/>
+    <col min="1024" max="1024" width="20.5703125" style="13" customWidth="1"/>
+    <col min="1025" max="1279" width="10.85546875" style="13"/>
+    <col min="1280" max="1280" width="20.5703125" style="13" customWidth="1"/>
+    <col min="1281" max="1535" width="10.85546875" style="13"/>
+    <col min="1536" max="1536" width="20.5703125" style="13" customWidth="1"/>
+    <col min="1537" max="1791" width="10.85546875" style="13"/>
+    <col min="1792" max="1792" width="20.5703125" style="13" customWidth="1"/>
+    <col min="1793" max="2047" width="10.85546875" style="13"/>
+    <col min="2048" max="2048" width="20.5703125" style="13" customWidth="1"/>
+    <col min="2049" max="2303" width="10.85546875" style="13"/>
+    <col min="2304" max="2304" width="20.5703125" style="13" customWidth="1"/>
+    <col min="2305" max="2559" width="10.85546875" style="13"/>
+    <col min="2560" max="2560" width="20.5703125" style="13" customWidth="1"/>
+    <col min="2561" max="2815" width="10.85546875" style="13"/>
+    <col min="2816" max="2816" width="20.5703125" style="13" customWidth="1"/>
+    <col min="2817" max="3071" width="10.85546875" style="13"/>
+    <col min="3072" max="3072" width="20.5703125" style="13" customWidth="1"/>
+    <col min="3073" max="3327" width="10.85546875" style="13"/>
+    <col min="3328" max="3328" width="20.5703125" style="13" customWidth="1"/>
+    <col min="3329" max="3583" width="10.85546875" style="13"/>
+    <col min="3584" max="3584" width="20.5703125" style="13" customWidth="1"/>
+    <col min="3585" max="3839" width="10.85546875" style="13"/>
+    <col min="3840" max="3840" width="20.5703125" style="13" customWidth="1"/>
+    <col min="3841" max="4095" width="10.85546875" style="13"/>
+    <col min="4096" max="4096" width="20.5703125" style="13" customWidth="1"/>
+    <col min="4097" max="4351" width="10.85546875" style="13"/>
+    <col min="4352" max="4352" width="20.5703125" style="13" customWidth="1"/>
+    <col min="4353" max="4607" width="10.85546875" style="13"/>
+    <col min="4608" max="4608" width="20.5703125" style="13" customWidth="1"/>
+    <col min="4609" max="4863" width="10.85546875" style="13"/>
+    <col min="4864" max="4864" width="20.5703125" style="13" customWidth="1"/>
+    <col min="4865" max="5119" width="10.85546875" style="13"/>
+    <col min="5120" max="5120" width="20.5703125" style="13" customWidth="1"/>
+    <col min="5121" max="5375" width="10.85546875" style="13"/>
+    <col min="5376" max="5376" width="20.5703125" style="13" customWidth="1"/>
+    <col min="5377" max="5631" width="10.85546875" style="13"/>
+    <col min="5632" max="5632" width="20.5703125" style="13" customWidth="1"/>
+    <col min="5633" max="5887" width="10.85546875" style="13"/>
+    <col min="5888" max="5888" width="20.5703125" style="13" customWidth="1"/>
+    <col min="5889" max="6143" width="10.85546875" style="13"/>
+    <col min="6144" max="6144" width="20.5703125" style="13" customWidth="1"/>
+    <col min="6145" max="6399" width="10.85546875" style="13"/>
+    <col min="6400" max="6400" width="20.5703125" style="13" customWidth="1"/>
+    <col min="6401" max="6655" width="10.85546875" style="13"/>
+    <col min="6656" max="6656" width="20.5703125" style="13" customWidth="1"/>
+    <col min="6657" max="6911" width="10.85546875" style="13"/>
+    <col min="6912" max="6912" width="20.5703125" style="13" customWidth="1"/>
+    <col min="6913" max="7167" width="10.85546875" style="13"/>
+    <col min="7168" max="7168" width="20.5703125" style="13" customWidth="1"/>
+    <col min="7169" max="7423" width="10.85546875" style="13"/>
+    <col min="7424" max="7424" width="20.5703125" style="13" customWidth="1"/>
+    <col min="7425" max="7679" width="10.85546875" style="13"/>
+    <col min="7680" max="7680" width="20.5703125" style="13" customWidth="1"/>
+    <col min="7681" max="7935" width="10.85546875" style="13"/>
+    <col min="7936" max="7936" width="20.5703125" style="13" customWidth="1"/>
+    <col min="7937" max="8191" width="10.85546875" style="13"/>
+    <col min="8192" max="8192" width="20.5703125" style="13" customWidth="1"/>
+    <col min="8193" max="8447" width="10.85546875" style="13"/>
+    <col min="8448" max="8448" width="20.5703125" style="13" customWidth="1"/>
+    <col min="8449" max="8703" width="10.85546875" style="13"/>
+    <col min="8704" max="8704" width="20.5703125" style="13" customWidth="1"/>
+    <col min="8705" max="8959" width="10.85546875" style="13"/>
+    <col min="8960" max="8960" width="20.5703125" style="13" customWidth="1"/>
+    <col min="8961" max="9215" width="10.85546875" style="13"/>
+    <col min="9216" max="9216" width="20.5703125" style="13" customWidth="1"/>
+    <col min="9217" max="9471" width="10.85546875" style="13"/>
+    <col min="9472" max="9472" width="20.5703125" style="13" customWidth="1"/>
+    <col min="9473" max="9727" width="10.85546875" style="13"/>
+    <col min="9728" max="9728" width="20.5703125" style="13" customWidth="1"/>
+    <col min="9729" max="9983" width="10.85546875" style="13"/>
+    <col min="9984" max="9984" width="20.5703125" style="13" customWidth="1"/>
+    <col min="9985" max="10239" width="10.85546875" style="13"/>
+    <col min="10240" max="10240" width="20.5703125" style="13" customWidth="1"/>
+    <col min="10241" max="10495" width="10.85546875" style="13"/>
+    <col min="10496" max="10496" width="20.5703125" style="13" customWidth="1"/>
+    <col min="10497" max="10751" width="10.85546875" style="13"/>
+    <col min="10752" max="10752" width="20.5703125" style="13" customWidth="1"/>
+    <col min="10753" max="11007" width="10.85546875" style="13"/>
+    <col min="11008" max="11008" width="20.5703125" style="13" customWidth="1"/>
+    <col min="11009" max="11263" width="10.85546875" style="13"/>
+    <col min="11264" max="11264" width="20.5703125" style="13" customWidth="1"/>
+    <col min="11265" max="11519" width="10.85546875" style="13"/>
+    <col min="11520" max="11520" width="20.5703125" style="13" customWidth="1"/>
+    <col min="11521" max="11775" width="10.85546875" style="13"/>
+    <col min="11776" max="11776" width="20.5703125" style="13" customWidth="1"/>
+    <col min="11777" max="12031" width="10.85546875" style="13"/>
+    <col min="12032" max="12032" width="20.5703125" style="13" customWidth="1"/>
+    <col min="12033" max="12287" width="10.85546875" style="13"/>
+    <col min="12288" max="12288" width="20.5703125" style="13" customWidth="1"/>
+    <col min="12289" max="12543" width="10.85546875" style="13"/>
+    <col min="12544" max="12544" width="20.5703125" style="13" customWidth="1"/>
+    <col min="12545" max="12799" width="10.85546875" style="13"/>
+    <col min="12800" max="12800" width="20.5703125" style="13" customWidth="1"/>
+    <col min="12801" max="13055" width="10.85546875" style="13"/>
+    <col min="13056" max="13056" width="20.5703125" style="13" customWidth="1"/>
+    <col min="13057" max="13311" width="10.85546875" style="13"/>
+    <col min="13312" max="13312" width="20.5703125" style="13" customWidth="1"/>
+    <col min="13313" max="13567" width="10.85546875" style="13"/>
+    <col min="13568" max="13568" width="20.5703125" style="13" customWidth="1"/>
+    <col min="13569" max="13823" width="10.85546875" style="13"/>
+    <col min="13824" max="13824" width="20.5703125" style="13" customWidth="1"/>
+    <col min="13825" max="14079" width="10.85546875" style="13"/>
+    <col min="14080" max="14080" width="20.5703125" style="13" customWidth="1"/>
+    <col min="14081" max="14335" width="10.85546875" style="13"/>
+    <col min="14336" max="14336" width="20.5703125" style="13" customWidth="1"/>
+    <col min="14337" max="14591" width="10.85546875" style="13"/>
+    <col min="14592" max="14592" width="20.5703125" style="13" customWidth="1"/>
+    <col min="14593" max="14847" width="10.85546875" style="13"/>
+    <col min="14848" max="14848" width="20.5703125" style="13" customWidth="1"/>
+    <col min="14849" max="15103" width="10.85546875" style="13"/>
+    <col min="15104" max="15104" width="20.5703125" style="13" customWidth="1"/>
+    <col min="15105" max="15359" width="10.85546875" style="13"/>
+    <col min="15360" max="15360" width="20.5703125" style="13" customWidth="1"/>
+    <col min="15361" max="15615" width="10.85546875" style="13"/>
+    <col min="15616" max="15616" width="20.5703125" style="13" customWidth="1"/>
+    <col min="15617" max="15871" width="10.85546875" style="13"/>
+    <col min="15872" max="15872" width="20.5703125" style="13" customWidth="1"/>
+    <col min="15873" max="16127" width="10.85546875" style="13"/>
+    <col min="16128" max="16128" width="20.5703125" style="13" customWidth="1"/>
+    <col min="16129" max="16384" width="10.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
@@ -2981,7 +3008,7 @@
       <c r="C1" s="24"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
@@ -2989,7 +3016,7 @@
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -3003,7 +3030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -3019,7 +3046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>1.25</v>
       </c>
@@ -3036,7 +3063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f>+A5+0.25</f>
         <v>1.5</v>
@@ -3054,7 +3081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <f>+A6+0.25</f>
         <v>1.75</v>
@@ -3072,7 +3099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <f>+A7+0.25</f>
         <v>2</v>
@@ -3090,7 +3117,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <f t="shared" ref="A9:A11" si="2">+A8+0.25</f>
         <v>2.25</v>
@@ -3108,7 +3135,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <f t="shared" si="2"/>
         <v>2.5</v>
@@ -3126,7 +3153,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <f t="shared" si="2"/>
         <v>2.75</v>
@@ -3144,7 +3171,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>3</v>
       </c>
@@ -3161,7 +3188,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
@@ -3178,25 +3205,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="17">
-        <f>ROUND(D14/1.16,2)</f>
-        <v>215.52</v>
-      </c>
-      <c r="C14" s="17">
-        <f>+D14-B14</f>
-        <v>34.47999999999999</v>
-      </c>
-      <c r="D14" s="17">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="B14" si="4">ROUND(D14/1.16,2)</f>
+        <v>86.21</v>
+      </c>
+      <c r="C14" s="19">
+        <f t="shared" ref="C14" si="5">+D14-B14</f>
+        <v>13.790000000000006</v>
+      </c>
+      <c r="D14" s="19">
+        <f>+D13+10</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B15" s="17">
         <f>ROUND(D15/1.16,2)</f>
@@ -3207,6 +3235,22 @@
         <v>34.47999999999999</v>
       </c>
       <c r="D15" s="17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="17">
+        <f>ROUND(D16/1.16,2)</f>
+        <v>215.52</v>
+      </c>
+      <c r="C16" s="17">
+        <f>+D16-B16</f>
+        <v>34.47999999999999</v>
+      </c>
+      <c r="D16" s="17">
         <v>250</v>
       </c>
     </row>

--- a/Desglose Tarifa Monterrey 89.xlsx
+++ b/Desglose Tarifa Monterrey 89.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mis documentos\Documentos Trabajo PASE\Manuales y Procedimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brink\Music\#Z\WORKSPACE\MONTERREY_89\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B23F36E-BD9E-4BAD-B7F4-2F086B8943E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE11E2F-E4A6-437E-B290-566EFD70872E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -380,9 +380,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -420,9 +420,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,26 +455,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,26 +490,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2864,7 +2830,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
